--- a/Technic/support/mev_type.xlsx
+++ b/Technic/support/mev_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9899d96411bbb4a3/Git/Project_LEGO/TECHNIC/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Git\Project_LEGO\Technic\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048B1B99E47D05ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982F7219-9759-4AF7-B889-03082FE211BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205E1EA2-734B-4515-9E56-6CC60F3DD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>mev_code</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>UNRATE</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -128,10 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +414,7 @@
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +427,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -436,8 +444,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -450,8 +461,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -464,8 +478,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -478,8 +495,11 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -491,6 +511,9 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Technic/support/mev_type.xlsx
+++ b/Technic/support/mev_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Git\Project_LEGO\Technic\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9899d96411bbb4a3/Git/Project_LEGO/TECHNIC/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205E1EA2-734B-4515-9E56-6CC60F3DD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048B1B99E47D05ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982F7219-9759-4AF7-B889-03082FE211BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>mev_code</t>
   </si>
@@ -76,15 +76,6 @@
   </si>
   <si>
     <t>UNRATE</t>
-  </si>
-  <si>
-    <t>aggregation</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
 </sst>
 </file>
@@ -137,6 +128,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +409,7 @@
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,11 +422,8 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -444,11 +436,8 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -461,11 +450,8 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -478,11 +464,8 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -495,11 +478,8 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -511,9 +491,6 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
